--- a/Body.xlsx
+++ b/Body.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ecommerce_Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898BB9E7-7092-48CA-9D6F-2D5D5237BD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF32438-DA84-46D1-857C-63E859B81111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B6476ED-93B3-458B-9892-B3A890F15F56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>Product name</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Badgley mischka</t>
   </si>
   <si>
-    <t>Header and Footer</t>
-  </si>
-  <si>
     <t>Navigation</t>
   </si>
   <si>
@@ -138,42 +135,6 @@
     <t>Header</t>
   </si>
   <si>
-    <t>Checking if the header is attached to the website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensuring spelling or text errors </t>
-  </si>
-  <si>
-    <t>Checking if the linked texts and the icons are perfectly alligned or not</t>
-  </si>
-  <si>
-    <t>Ensuring the color of the header is not hiding the appearance of the elements of the header</t>
-  </si>
-  <si>
-    <t>Checking if the color of the header is matching with the body or not</t>
-  </si>
-  <si>
-    <t>Ensuring linked texts, logo and icons are maintainig a perfect distance from each other</t>
-  </si>
-  <si>
-    <t>Ensuring header is responsive on different screen sizes ( mobile, tablet, desktop )</t>
-  </si>
-  <si>
-    <t>Checking if the fonts of the header are same or not</t>
-  </si>
-  <si>
-    <t>Ensuring header is fixed or sticky while scrollinh</t>
-  </si>
-  <si>
-    <t>Ensuring logo is displaying correctly in header</t>
-  </si>
-  <si>
-    <t>Ensuring hover effects are applied to the elements (llinked texts, icons)</t>
-  </si>
-  <si>
-    <t>Checking is their any add to cart and search icons are available or not</t>
-  </si>
-  <si>
     <t>Ensuring logo, after clicking on the logo its taking to the home page</t>
   </si>
   <si>
@@ -297,39 +258,6 @@
     <t xml:space="preserve">Add to cart and icons should be available </t>
   </si>
   <si>
-    <t>Verifing all the links of the footer are working</t>
-  </si>
-  <si>
-    <t>Verifing right page is opening after clicking on the linked texts</t>
-  </si>
-  <si>
-    <t>Ensuring that after clicking on the logo its redirecting to the home page</t>
-  </si>
-  <si>
-    <t>Verifing that social icons are connected to the correct links and opens the correct page</t>
-  </si>
-  <si>
-    <t>Checking is there any broken links are present or not</t>
-  </si>
-  <si>
-    <t>checking is there any subscription option is present or not</t>
-  </si>
-  <si>
-    <t>Verifing weather the signup optio is taking invalid data or not</t>
-  </si>
-  <si>
-    <t>Ensuring that its showing error message after giving invalid data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verifing that valid email is successfuly submiting </t>
-  </si>
-  <si>
-    <t>Ensuring that  a message is showing showing after successfully submit the valid email</t>
-  </si>
-  <si>
-    <t>Functional testing</t>
-  </si>
-  <si>
     <t>Logo should be linked to the home page</t>
   </si>
   <si>
@@ -411,34 +339,58 @@
     <t>Company number and eamil should be attached in the footer</t>
   </si>
   <si>
-    <t>All links of the footer should be working</t>
-  </si>
-  <si>
-    <t>Right page should be open after clicking on the linked texts</t>
-  </si>
-  <si>
-    <t>Social icons should be connected to the correct link and pages</t>
-  </si>
-  <si>
-    <t>There should be no broken links</t>
-  </si>
-  <si>
-    <t>There should be a subscription option</t>
-  </si>
-  <si>
-    <t>Signup option shouldn't be taken invalid data</t>
-  </si>
-  <si>
-    <t>Error message should be shpwn after giving invalid data</t>
-  </si>
-  <si>
-    <t>Valid mail should be successfully submitted</t>
-  </si>
-  <si>
-    <t>A pop-up or a message should be showen after successfully submitting the valid data</t>
-  </si>
-  <si>
-    <t>15/10/2024</t>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>19/10/2024</t>
+  </si>
+  <si>
+    <t>Core section</t>
+  </si>
+  <si>
+    <t>Text Display Testing</t>
+  </si>
+  <si>
+    <t>Checking if the texts are readable or not</t>
+  </si>
+  <si>
+    <t>Ensuring there is no spelling mistakes</t>
+  </si>
+  <si>
+    <t>Checking if there any gramatical mistake is present or not</t>
+  </si>
+  <si>
+    <t>Ensuring the allignment of the headings and sub headings with the body</t>
+  </si>
+  <si>
+    <t>Checking if the texts are connected with correct page or not</t>
+  </si>
+  <si>
+    <t>Ensuring every texts has its own space with visibilty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring fonts of the texts are in a perfect range where user can read it easily </t>
+  </si>
+  <si>
+    <t>Checking if the fonts of the texts are responsive or not</t>
+  </si>
+  <si>
+    <t>Ensuring texts are displaying perfectly on different screen sizes and its not overlaping</t>
+  </si>
+  <si>
+    <t>Ensuring texts on the buttons are visible to understand for the user</t>
+  </si>
+  <si>
+    <t>Ensuring hover effects are presents for the linked texts</t>
+  </si>
+  <si>
+    <t>Checking is their any extra and useless texts are present or not which can create problem for the user</t>
   </si>
 </sst>
 </file>
@@ -532,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -665,17 +617,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -684,95 +729,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA19025C-277F-4DBB-BB44-9F0A648F386E}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,620 +1101,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21">
-        <v>45483</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="21">
-        <v>45514</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="24" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="34">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
+      <c r="B14" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="32">
         <v>3</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="35"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="9">
         <v>6</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="9">
         <v>7</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="9">
         <v>9</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="9">
         <v>10</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="9">
         <v>11</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="9">
         <v>12</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>13</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>13</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>33</v>
+      <c r="D39" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1732,10 +1723,10 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1745,17 +1736,17 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="9">
         <v>14</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1764,10 +1755,10 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1777,17 +1768,17 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="9">
         <v>15</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1796,10 +1787,10 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1809,17 +1800,17 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="9">
         <v>16</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1828,10 +1819,10 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1841,17 +1832,17 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="9">
         <v>17</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1860,10 +1851,10 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -1873,17 +1864,17 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="9">
         <v>18</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1892,10 +1883,10 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1905,17 +1896,17 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="9">
         <v>19</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1924,10 +1915,10 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -1937,17 +1928,17 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="9">
         <v>20</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1956,10 +1947,10 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -1969,17 +1960,17 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="9">
         <v>21</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1988,10 +1979,10 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2001,17 +1992,17 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="9">
         <v>22</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2020,10 +2011,10 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2033,49 +2024,49 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="9">
         <v>23</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="9">
         <v>24</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2084,10 +2075,10 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2112,23 +2103,23 @@
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="3">
         <v>25</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>74</v>
+      <c r="D64" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2137,10 +2128,10 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2150,17 +2141,17 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="3">
         <v>26</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2169,10 +2160,10 @@
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2182,17 +2173,17 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="3">
         <v>27</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2201,10 +2192,10 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2214,17 +2205,17 @@
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="14">
+      <c r="A70" s="3">
         <v>28</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2233,10 +2224,10 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2246,17 +2237,17 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="3">
         <v>29</v>
       </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2265,10 +2256,10 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2278,17 +2269,17 @@
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="3">
         <v>30</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -2297,10 +2288,10 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2310,17 +2301,17 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+      <c r="A76" s="3">
         <v>31</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2329,10 +2320,10 @@
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2342,17 +2333,17 @@
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="A78" s="3">
         <v>32</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2361,10 +2352,10 @@
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -2374,17 +2365,17 @@
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="A80" s="3">
         <v>33</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2393,10 +2384,10 @@
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -2406,17 +2397,17 @@
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+      <c r="A82" s="3">
         <v>34</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2425,10 +2416,10 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -2438,49 +2429,49 @@
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="A84" s="3">
         <v>35</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+      <c r="A86" s="3">
         <v>36</v>
       </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2489,10 +2480,10 @@
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -2502,81 +2493,81 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
+      <c r="A88" s="3">
         <v>37</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="7"/>
+      <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="7"/>
+      <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+      <c r="A90" s="3">
         <v>38</v>
       </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="7"/>
+      <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+      <c r="A92" s="3">
         <v>39</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2585,10 +2576,10 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2612,331 +2603,267 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36">
         <v>40</v>
       </c>
-      <c r="B95" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
-        <v>41</v>
-      </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="14">
-        <v>42</v>
-      </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
-        <v>43</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
-        <v>44</v>
-      </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="14">
-        <v>45</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
-        <v>46</v>
-      </c>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="14">
-        <v>47</v>
-      </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
-        <v>48</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
-        <v>49</v>
-      </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="39"/>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="42"/>
+    </row>
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="42"/>
+    </row>
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="42"/>
+    </row>
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="42"/>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="40"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="42"/>
+    </row>
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="40"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="42"/>
+    </row>
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="40"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="42"/>
+    </row>
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="40"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="42"/>
+    </row>
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="42"/>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="40"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="42"/>
+    </row>
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="40"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="42"/>
+    </row>
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="40"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="42"/>
+    </row>
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="40"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="42"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="42"/>
+    </row>
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="40"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="42"/>
+    </row>
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="42"/>
+    </row>
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="40"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="42"/>
+    </row>
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="40"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="42"/>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="43"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="45"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
@@ -2954,83 +2881,351 @@
       <c r="M115" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="451">
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B95:B114"/>
-    <mergeCell ref="C95:C114"/>
-    <mergeCell ref="D95:D114"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="J113:J114"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
+  <mergeCells count="368">
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B14:B37"/>
+    <mergeCell ref="C14:C37"/>
+    <mergeCell ref="D14:D37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="D39:D62"/>
+    <mergeCell ref="C39:C62"/>
+    <mergeCell ref="B39:B62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:F10"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
     <mergeCell ref="K88:K89"/>
     <mergeCell ref="K90:K91"/>
     <mergeCell ref="K92:K93"/>
@@ -3055,357 +3250,6 @@
     <mergeCell ref="H88:H89"/>
     <mergeCell ref="H90:H91"/>
     <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:F10"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="D39:D62"/>
-    <mergeCell ref="C39:C62"/>
-    <mergeCell ref="B39:B62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B14:B37"/>
-    <mergeCell ref="C14:C37"/>
-    <mergeCell ref="D14:D37"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Body.xlsx
+++ b/Body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ecommerce_Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF32438-DA84-46D1-857C-63E859B81111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597AB1D9-9A77-4E03-805A-CAD5E8F65DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B6476ED-93B3-458B-9892-B3A890F15F56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Product name</t>
   </si>
@@ -126,219 +126,6 @@
     <t>Badgley mischka</t>
   </si>
   <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>UI Testing</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Ensuring logo, after clicking on the logo its taking to the home page</t>
-  </si>
-  <si>
-    <t>Checking if the linked texts are connected to the correct pages</t>
-  </si>
-  <si>
-    <t>verifing that the logo is connected and linked with the home page</t>
-  </si>
-  <si>
-    <t>Verifing that after clicking on the logo from every pages of the website its taking to the home page</t>
-  </si>
-  <si>
-    <t>Verifing that selected header links are remain active to inform the user about selected page</t>
-  </si>
-  <si>
-    <t>Ensuring that after clicking on the cart icon its taking the user to the shopping cart option or checkout</t>
-  </si>
-  <si>
-    <t>Verifing that after clicking on the user profile icon its taking the user to his profile or a dropdown menu is displayed</t>
-  </si>
-  <si>
-    <t>Verifing that country flag icon is showing based on user credential and information while visiting the website</t>
-  </si>
-  <si>
-    <t>Verifing that after clicking on the country logo,its showing correct info about shipment. Which is containing of country name and currency</t>
-  </si>
-  <si>
-    <t>Verifing that there is another navigation part attached with header which is showing country wise free shipping cost</t>
-  </si>
-  <si>
-    <t>Checking if the navigation bar is functional or not</t>
-  </si>
-  <si>
-    <t>Verifing that the navigation bar is sticky or attached with main header section</t>
-  </si>
-  <si>
-    <t>Functionality Testing</t>
-  </si>
-  <si>
-    <t>verifing that footer is perfectly alligned at the end of website pages</t>
-  </si>
-  <si>
-    <t>Ensuring there is no extra white space from any side at the end of the website</t>
-  </si>
-  <si>
-    <t>Verifing all the elements are perfectly alligned in the footer section</t>
-  </si>
-  <si>
-    <t>Ensuring there is no grammatical mistakes in the footer elements</t>
-  </si>
-  <si>
-    <t>Verifing there is no spelling mistakes in the elements of the footer</t>
-  </si>
-  <si>
-    <t>Verifing that there are equal space for elements link, buttons and icons</t>
-  </si>
-  <si>
-    <t>Ensuring whether copyright is added in footer section or not</t>
-  </si>
-  <si>
-    <t>Verifing the logo is present in the footer section</t>
-  </si>
-  <si>
-    <t>Verifing that the logo has its own space in the footer section to make it shown</t>
-  </si>
-  <si>
-    <t>Verifing that the logo is perfectly alligned with other elements</t>
-  </si>
-  <si>
-    <t>Ensuring that all the social icons are alligned with there personal spaces</t>
-  </si>
-  <si>
-    <t>Checking is there any pointer icon which will take the user to top of the website after click on it</t>
-  </si>
-  <si>
-    <t>Verifing that there are privacy policy, terms and use linked texts beside of the copy right linked text</t>
-  </si>
-  <si>
-    <t>Checking is there any sign up option with email field or not</t>
-  </si>
-  <si>
-    <t>Verifing that company contact number and email are added in footer section</t>
-  </si>
-  <si>
-    <t>Footer</t>
-  </si>
-  <si>
-    <t>Header should be attched to the website</t>
-  </si>
-  <si>
-    <t>There should be no speeling mistakes</t>
-  </si>
-  <si>
-    <t>Linked texts and icons should be perfectly alligned</t>
-  </si>
-  <si>
-    <t>Elements in the header shouldn't be hidden by the color of the header</t>
-  </si>
-  <si>
-    <t>Color of the header shouldn't be matched with body color</t>
-  </si>
-  <si>
-    <t>Elements of the header should maintain a perfect distance from each other</t>
-  </si>
-  <si>
-    <t>Header should be responsive on different screen sizes</t>
-  </si>
-  <si>
-    <t>Fonts shouldn't be the same</t>
-  </si>
-  <si>
-    <t>Header should be fixed and sticky while scrolling</t>
-  </si>
-  <si>
-    <t>logo should be correctly displayed</t>
-  </si>
-  <si>
-    <t>Hover effects should be applied on the elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add to cart and icons should be available </t>
-  </si>
-  <si>
-    <t>Logo should be linked to the home page</t>
-  </si>
-  <si>
-    <t>Home page should be open after clicking on the logo</t>
-  </si>
-  <si>
-    <t>Home page should be open from every pages of the website after clicking on the logo</t>
-  </si>
-  <si>
-    <t>linked texts should be connected to the correct pages</t>
-  </si>
-  <si>
-    <t>Selected header links should be remain active</t>
-  </si>
-  <si>
-    <t>Shopping cart or checkout option sjould be open after clicking on cart icon</t>
-  </si>
-  <si>
-    <t>User profile should be shown after clicking on the profile icon</t>
-  </si>
-  <si>
-    <t>after clicking on the country flag icon user information should be shown by based on user credential</t>
-  </si>
-  <si>
-    <t>Correct information should be shown after clicking on the country logo</t>
-  </si>
-  <si>
-    <t>Another navigation part should be attached which will be showing country wise free shipping cost</t>
-  </si>
-  <si>
-    <t>Navigation bar should be functional</t>
-  </si>
-  <si>
-    <t>Header part should be attacvhed or sticky on the website</t>
-  </si>
-  <si>
-    <t>Footer should be perfectly aligned at the end of the website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be no extra white space from anyside at the end of the website </t>
-  </si>
-  <si>
-    <t>All the elements should be perfectly aligned in footer</t>
-  </si>
-  <si>
-    <t>There should be no grammatical mistakes in the footer</t>
-  </si>
-  <si>
-    <t>There should be no spelling mistakes</t>
-  </si>
-  <si>
-    <t>There should be equal space for the elements ( icons, linked texts, buttons)</t>
-  </si>
-  <si>
-    <t>Copyrights text should be added in the footer</t>
-  </si>
-  <si>
-    <t>There should be logo in the footer section</t>
-  </si>
-  <si>
-    <t>There should be a individual space for the logo in the footer</t>
-  </si>
-  <si>
-    <t>The  logo should be perfectly aligned</t>
-  </si>
-  <si>
-    <t>All the social icons should be perfectly aligned in there own space</t>
-  </si>
-  <si>
-    <t>There should be a pointer icon, by click on it , user will go to the top of the website from the bottom</t>
-  </si>
-  <si>
-    <t>There should be privacy policy, terms and use texts in the footer</t>
-  </si>
-  <si>
-    <t>Thereshould be a sign up option in the footer</t>
-  </si>
-  <si>
-    <t>Company number and eamil should be attached in the footer</t>
-  </si>
-  <si>
     <t>Body</t>
   </si>
   <si>
@@ -391,6 +178,120 @@
   </si>
   <si>
     <t>Checking is their any extra and useless texts are present or not which can create problem for the user</t>
+  </si>
+  <si>
+    <t>Core Section</t>
+  </si>
+  <si>
+    <t>Image Display Testing</t>
+  </si>
+  <si>
+    <t>verifing that images are displayed properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring alt texts are added for the specific images </t>
+  </si>
+  <si>
+    <t>Verifing that images are resizing in different screen sizes</t>
+  </si>
+  <si>
+    <t>Checking images if they are all same sizes or not</t>
+  </si>
+  <si>
+    <t>Verifing the allignment of the pictures for the particular sections of the body</t>
+  </si>
+  <si>
+    <t>Ensuring that resolutions of the pictures are high and responsive in all screen sizes</t>
+  </si>
+  <si>
+    <t>Verifing that image color and section on which it's been placed are not matching</t>
+  </si>
+  <si>
+    <t>Verifing that images are not overlapping</t>
+  </si>
+  <si>
+    <t>Verifing that buttons which have bas been added on the images aren't creating any problem to displaying it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing that texts and text color on the images are responsive </t>
+  </si>
+  <si>
+    <t>Checking if the alt text of the images are broken or not</t>
+  </si>
+  <si>
+    <t>Verifing that images are specified and related to the sections</t>
+  </si>
+  <si>
+    <t>Video Display Testing</t>
+  </si>
+  <si>
+    <t>Verifing that video is loaded perfectly</t>
+  </si>
+  <si>
+    <t>Ensuring that video is responsive in all screen sizes</t>
+  </si>
+  <si>
+    <t>Verifing that the video can be pause and play</t>
+  </si>
+  <si>
+    <t>Ensuring the video is placed to a particular section</t>
+  </si>
+  <si>
+    <t>Verifing there is no extra white space from both side of the video</t>
+  </si>
+  <si>
+    <t>Verifing that the video quality is good and the resolution is high</t>
+  </si>
+  <si>
+    <t>Ensuring that the video is responsive in different screen sizes</t>
+  </si>
+  <si>
+    <t>Verifing the texts are visible on the video or not</t>
+  </si>
+  <si>
+    <t>Verifing that the button color is not matching with the video color and its placed perfectly</t>
+  </si>
+  <si>
+    <t>Verifing that the video is not overlapping with any texts or sections while its screening on different tab and mobile</t>
+  </si>
+  <si>
+    <t>Ensuring that resolution of the videos are same for every pages</t>
+  </si>
+  <si>
+    <t>Checking that looping time of the video isn't too long</t>
+  </si>
+  <si>
+    <t>Verifing that all the buttons are visible</t>
+  </si>
+  <si>
+    <t>Ensuring that texts in the buttons are visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing that buttons are clickable </t>
+  </si>
+  <si>
+    <t>Verifing that hovering affects are added in buttons</t>
+  </si>
+  <si>
+    <t>Ensuring that all links on the body are clickable</t>
+  </si>
+  <si>
+    <t>Verifing that buttons are not connected with any broken links</t>
+  </si>
+  <si>
+    <t>verifing that size of the buttons are same on the main section of the body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing that the color of the button is matching with the body or not </t>
+  </si>
+  <si>
+    <t>Verifing that hovering afftecs are different for the buttons which are matching with body color</t>
+  </si>
+  <si>
+    <t>Verifing that by click on the sliding arrow buttons its continusly sliding without being stop on a particular slide</t>
+  </si>
+  <si>
+    <t>Buttons and links Testing</t>
   </si>
 </sst>
 </file>
@@ -449,12 +350,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,8 +378,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -617,34 +518,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,7 +558,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,15 +570,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -714,56 +600,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA19025C-277F-4DBB-BB44-9F0A648F386E}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,20 +966,20 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>102</v>
+      <c r="D1" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>104</v>
+      <c r="F1" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>13</v>
@@ -1126,11 +988,11 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
@@ -1138,954 +1000,906 @@
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>101</v>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>103</v>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="4"/>
       <c r="H10" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="B14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>3</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>6</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>7</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>9</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>10</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>11</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="5"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>13</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>14</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>15</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>16</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>17</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>18</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>19</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>20</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>21</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>22</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>23</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>24</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -2103,490 +1917,454 @@
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>25</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="E64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>26</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="E66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>27</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="E68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>28</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="E70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>29</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="E72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>30</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="E74" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>31</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="E76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>32</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="E78" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="5">
         <v>33</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="E80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="5"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>34</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="E82" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="5">
         <v>35</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="2"/>
+      <c r="E84" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="2"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="5">
         <v>36</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="E86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="5">
         <v>37</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="5"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="5"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="5"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="5">
         <v>38</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="5"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="5"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="5">
         <v>39</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -2604,266 +2382,310 @@
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36">
+      <c r="A95" s="5">
         <v>40</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="39"/>
+      <c r="B95" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="42"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="42"/>
+      <c r="A97" s="5">
+        <v>41</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="42"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="42"/>
+      <c r="A99" s="5">
+        <v>42</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="42"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="42"/>
+      <c r="A101" s="5">
+        <v>43</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="42"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="42"/>
+      <c r="A103" s="5">
+        <v>44</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="42"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="42"/>
+      <c r="A105" s="5">
+        <v>45</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="42"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="42"/>
+      <c r="A107" s="5">
+        <v>46</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="42"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="42"/>
+      <c r="A109" s="5">
+        <v>47</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="42"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="42"/>
+      <c r="A111" s="5">
+        <v>48</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="42"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="42"/>
+      <c r="A113" s="5">
+        <v>49</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="44"/>
-      <c r="K114" s="45"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
@@ -2881,7 +2703,90 @@
       <c r="M115" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="368">
+  <mergeCells count="451">
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B95:B114"/>
+    <mergeCell ref="C95:C114"/>
+    <mergeCell ref="D95:D114"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="E55:E56"/>

--- a/Body.xlsx
+++ b/Body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ecommerce_Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436941C-F296-4358-BE5E-E68DA87B9C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975302D-58A3-44F2-ABC0-83F2A91E953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B6476ED-93B3-458B-9892-B3A890F15F56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>Product name</t>
   </si>
@@ -328,6 +328,42 @@
   </si>
   <si>
     <t>There shouldn't be any useless texts on body which are irrelavent</t>
+  </si>
+  <si>
+    <t>Images should be displayed properly</t>
+  </si>
+  <si>
+    <t>Alt texts should be added for the specific images</t>
+  </si>
+  <si>
+    <t>Images should be resizied in different screen sizes</t>
+  </si>
+  <si>
+    <t>All images shouldn't be in same sizes</t>
+  </si>
+  <si>
+    <t>There should be perfect alignment of the pictures for the particular sections</t>
+  </si>
+  <si>
+    <t>Resolutions of the pictures should be high and responsive</t>
+  </si>
+  <si>
+    <t>Image color shouldn't be same for the sections on which it's been placed</t>
+  </si>
+  <si>
+    <t>Images shouldn't be overlapping</t>
+  </si>
+  <si>
+    <t>Buttons shoudn't be create any problem on displaying on images</t>
+  </si>
+  <si>
+    <t>Text and text color on images should be responsive</t>
+  </si>
+  <si>
+    <t>alt text of the images shouldn't be broken</t>
+  </si>
+  <si>
+    <t>Images should be specified and related to the sections</t>
   </si>
 </sst>
 </file>
@@ -979,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA19025C-277F-4DBB-BB44-9F0A648F386E}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1647,9 @@
       <c r="E39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1641,7 +1679,9 @@
       <c r="E41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1671,7 +1711,9 @@
       <c r="E43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1701,7 +1743,9 @@
       <c r="E45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1731,7 +1775,9 @@
       <c r="E47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1761,7 +1807,9 @@
       <c r="E49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -1791,7 +1839,9 @@
       <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -1821,7 +1871,9 @@
       <c r="E53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -1851,7 +1903,9 @@
       <c r="E55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -1881,7 +1935,9 @@
       <c r="E57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -1911,7 +1967,9 @@
       <c r="E59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -1941,7 +1999,9 @@
       <c r="E61" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>

--- a/Body.xlsx
+++ b/Body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ecommerce_Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975302D-58A3-44F2-ABC0-83F2A91E953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B3DBC3-3FEF-40A1-9B65-DA2B0551099E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B6476ED-93B3-458B-9892-B3A890F15F56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>Product name</t>
   </si>
@@ -364,6 +364,42 @@
   </si>
   <si>
     <t>Images should be specified and related to the sections</t>
+  </si>
+  <si>
+    <t>Video should be loaded perfectly</t>
+  </si>
+  <si>
+    <t>Video should be responsive for all screen sizes</t>
+  </si>
+  <si>
+    <t>Function of video pause and play should be added</t>
+  </si>
+  <si>
+    <t>Video should be placed to a particular place</t>
+  </si>
+  <si>
+    <t>There shouldn't be any extra white space</t>
+  </si>
+  <si>
+    <t>Video quality and resolutaion should be good and high</t>
+  </si>
+  <si>
+    <t>Video should be responsive in different scrteen sizes</t>
+  </si>
+  <si>
+    <t>Texts should be visible on the video if added</t>
+  </si>
+  <si>
+    <t>Button color shouldn't be match with video if its added on the video</t>
+  </si>
+  <si>
+    <t>Video shouldn't be overlapping any texts or sections while screening</t>
+  </si>
+  <si>
+    <t>Resolutions of the videos should be same for every pages</t>
+  </si>
+  <si>
+    <t>Looping time of the video shouldn't be so long</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA19025C-277F-4DBB-BB44-9F0A648F386E}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61:F62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2088,9 @@
       <c r="E64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2082,7 +2120,9 @@
       <c r="E66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -2112,7 +2152,9 @@
       <c r="E68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2142,7 +2184,9 @@
       <c r="E70" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2172,7 +2216,9 @@
       <c r="E72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2202,7 +2248,9 @@
       <c r="E74" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2232,7 +2280,9 @@
       <c r="E76" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2262,7 +2312,9 @@
       <c r="E78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -2292,7 +2344,9 @@
       <c r="E80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -2322,7 +2376,9 @@
       <c r="E82" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -2352,7 +2408,9 @@
       <c r="E84" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
@@ -2382,7 +2440,9 @@
       <c r="E86" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>

--- a/Body.xlsx
+++ b/Body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ecommerce_Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C2F62C-328F-4240-8692-21F9717476C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761A9A8-664B-4CB5-8EAA-2F2BC05D59DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B6476ED-93B3-458B-9892-B3A890F15F56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="147">
   <si>
     <t>Product name</t>
   </si>
@@ -460,6 +460,21 @@
   </si>
   <si>
     <t>1. Go the URL- https://www.badgleymischka 2. scroll down and check the sections</t>
+  </si>
+  <si>
+    <t>Found as per expectation</t>
+  </si>
+  <si>
+    <t>1. Go to the browser of different devices 2. Go the URL- https://www.badgleymischka</t>
+  </si>
+  <si>
+    <t>1. Go the URL- https://www.badgleymischka  2. Check every pages of the website</t>
+  </si>
+  <si>
+    <t>1. Go the URL- https://www.badgleymischka 2. Check every pages of the website</t>
+  </si>
+  <si>
+    <t>1. Go the URL- https://www.badgleymischka 2. Check the videos of every pages of the website</t>
   </si>
 </sst>
 </file>
@@ -694,42 +709,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,6 +763,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,30 +790,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,9 +814,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA19025C-277F-4DBB-BB44-9F0A648F386E}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51:H52"/>
+    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,1183 +1152,1183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="27"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="33">
         <v>2</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="34" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="34"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="35" t="s">
+      <c r="J18" s="14"/>
+      <c r="K18" s="36" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="36"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="34" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="10">
         <v>5</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="34" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="10">
         <v>6</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="3" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="34" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="34"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="10">
         <v>7</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="34" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="34"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="10">
         <v>8</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="3" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="34" t="s">
+      <c r="J28" s="14"/>
+      <c r="K28" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="34"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="10">
         <v>9</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="3" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="34" t="s">
+      <c r="J30" s="14"/>
+      <c r="K30" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="34"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
         <v>10</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="3" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="34" t="s">
+      <c r="J32" s="14"/>
+      <c r="K32" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="34"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>11</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="3" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="37" t="s">
+      <c r="J34" s="14"/>
+      <c r="K34" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="37"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="10">
         <v>12</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="3" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="34" t="s">
+      <c r="J36" s="14"/>
+      <c r="K36" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="34"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="10">
         <v>13</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="2"/>
+      <c r="K39" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="10">
         <v>14</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="3" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="2"/>
+      <c r="K41" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="10">
         <v>15</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="3" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="2"/>
+      <c r="K43" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="10">
         <v>16</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="3" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="2"/>
+      <c r="K45" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="10">
         <v>17</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="3" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="13" t="s">
+      <c r="J47" s="2"/>
+      <c r="K47" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="13"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="15"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="10">
         <v>18</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="3" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="12" t="s">
+      <c r="J49" s="2"/>
+      <c r="K49" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="10">
         <v>19</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="3" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="12" t="s">
+      <c r="J51" s="2"/>
+      <c r="K51" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="10">
         <v>20</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="3" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="13" t="s">
+      <c r="J53" s="2"/>
+      <c r="K53" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="13"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="10">
         <v>21</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="3" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="12" t="s">
+      <c r="J55" s="2"/>
+      <c r="K55" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="12"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="13"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="10">
         <v>22</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="3" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="2"/>
+      <c r="K57" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="10">
         <v>23</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="3" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="2"/>
+      <c r="K59" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="10">
         <v>24</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="3" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="12" t="s">
+      <c r="J61" s="2"/>
+      <c r="K61" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="12"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
@@ -2331,7 +2346,7 @@
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>25</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2343,466 +2358,562 @@
       <c r="D64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="G64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>26</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="G66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="13"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>27</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="G68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="13"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>28</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="G70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="13"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>29</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="G72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>30</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="G74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>31</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="G76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="13"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>32</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="G78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="13"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>33</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
+      <c r="G80" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>34</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="G82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="13"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>35</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="3"/>
+      <c r="G84" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J84" s="14"/>
+      <c r="K84" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="3"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="15"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>36</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="G86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="15"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>37</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="14"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="14"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>38</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="14"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="14"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>39</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -2820,7 +2931,7 @@
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>40</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -2832,318 +2943,318 @@
       <c r="D95" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>41</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>42</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>43</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>44</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>45</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+      <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>46</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>47</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>48</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
+      <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>49</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
@@ -3162,6 +3273,433 @@
     </row>
   </sheetData>
   <mergeCells count="451">
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="B64:B93"/>
+    <mergeCell ref="C64:C93"/>
+    <mergeCell ref="D64:D93"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B9:F10"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="D39:D62"/>
+    <mergeCell ref="C39:C62"/>
+    <mergeCell ref="B39:B62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="B14:B37"/>
+    <mergeCell ref="C14:C37"/>
+    <mergeCell ref="D14:D37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="K105:K106"/>
     <mergeCell ref="I113:I114"/>
     <mergeCell ref="J113:J114"/>
     <mergeCell ref="K113:K114"/>
@@ -3186,433 +3724,6 @@
     <mergeCell ref="K109:K110"/>
     <mergeCell ref="I111:I112"/>
     <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="J101:J102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="J103:J104"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="J105:J106"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="J97:J98"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="J99:J100"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="B14:B37"/>
-    <mergeCell ref="C14:C37"/>
-    <mergeCell ref="D14:D37"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="D39:D62"/>
-    <mergeCell ref="C39:C62"/>
-    <mergeCell ref="B39:B62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B9:F10"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="B64:B93"/>
-    <mergeCell ref="C64:C93"/>
-    <mergeCell ref="D64:D93"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H92:H93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Body.xlsx
+++ b/Body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ecommerce_Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761A9A8-664B-4CB5-8EAA-2F2BC05D59DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B57852-488E-49DC-9BFF-5CFD1C3631B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B6476ED-93B3-458B-9892-B3A890F15F56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="154">
   <si>
     <t>Product name</t>
   </si>
@@ -399,9 +399,6 @@
     <t>All the buttons should be visible</t>
   </si>
   <si>
-    <t>Texts in the butoon should be visible</t>
-  </si>
-  <si>
     <t>Buttons should be clickable</t>
   </si>
   <si>
@@ -475,6 +472,30 @@
   </si>
   <si>
     <t>1. Go the URL- https://www.badgleymischka 2. Check the videos of every pages of the website</t>
+  </si>
+  <si>
+    <t>1. Go the URL- https://www.badgleymischka  2. Check buttons from every pages of the website</t>
+  </si>
+  <si>
+    <t>Texts in the button should be visible</t>
+  </si>
+  <si>
+    <t>1. Go the URL- https://www.badgleymischka  2. Check the links from every pages of the website</t>
+  </si>
+  <si>
+    <t>1. Go the URL- https://www.badgleymischka  2. Check links from every pages of the website</t>
+  </si>
+  <si>
+    <t>20/10/2024</t>
+  </si>
+  <si>
+    <t>M Rafiuzzaman himel</t>
+  </si>
+  <si>
+    <t>Has been completed</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -705,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,24 +789,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,6 +818,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA19025C-277F-4DBB-BB44-9F0A648F386E}">
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,19 +1188,19 @@
       <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
@@ -1182,8 +1209,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="21"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -1201,11 +1228,15 @@
       <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
@@ -1213,9 +1244,9 @@
       <c r="C4" s="21"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -1225,25 +1256,31 @@
       <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="E5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="G5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="2"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -1257,11 +1294,15 @@
       <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -1269,33 +1310,37 @@
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="38">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1365,17 +1410,17 @@
         <v>84</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,7 +1437,7 @@
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="27">
         <v>2</v>
       </c>
       <c r="B16" s="7"/>
@@ -1405,21 +1450,21 @@
         <v>85</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" s="14"/>
-      <c r="K16" s="35" t="s">
-        <v>134</v>
+      <c r="K16" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1429,7 +1474,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1445,17 +1490,17 @@
         <v>86</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="36" t="s">
-        <v>134</v>
+      <c r="K18" s="30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1514,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="2"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -1485,17 +1530,17 @@
         <v>87</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J20" s="14"/>
-      <c r="K20" s="35" t="s">
-        <v>134</v>
+      <c r="K20" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1554,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="2"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="35"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -1519,23 +1564,23 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="35" t="s">
-        <v>134</v>
+      <c r="K22" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,7 +1594,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="2"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -1565,17 +1610,17 @@
         <v>89</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="35" t="s">
-        <v>134</v>
+      <c r="K24" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,7 +1634,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="2"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="35"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -1605,17 +1650,17 @@
         <v>90</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="35" t="s">
-        <v>134</v>
+      <c r="K26" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1674,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="2"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="35"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -1645,17 +1690,17 @@
         <v>91</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="35" t="s">
-        <v>134</v>
+      <c r="K28" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,7 +1714,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="2"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="35"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -1685,17 +1730,17 @@
         <v>92</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J30" s="14"/>
-      <c r="K30" s="35" t="s">
-        <v>134</v>
+      <c r="K30" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1754,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="2"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="35"/>
+      <c r="K31" s="29"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -1725,17 +1770,17 @@
         <v>93</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J32" s="14"/>
-      <c r="K32" s="35" t="s">
-        <v>134</v>
+      <c r="K32" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1794,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="2"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
@@ -1765,16 +1810,16 @@
         <v>94</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J34" s="14"/>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1789,7 +1834,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="2"/>
       <c r="J35" s="14"/>
-      <c r="K35" s="34"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
@@ -1805,17 +1850,17 @@
         <v>95</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="35" t="s">
-        <v>134</v>
+      <c r="K36" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,7 +1874,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="2"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="35"/>
+      <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
@@ -1864,13 +1909,13 @@
         <v>96</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="13" t="s">
@@ -1904,13 +1949,13 @@
         <v>97</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="13" t="s">
@@ -1944,13 +1989,13 @@
         <v>98</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="13" t="s">
@@ -1984,13 +2029,13 @@
         <v>99</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="13" t="s">
@@ -2024,13 +2069,13 @@
         <v>100</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="15" t="s">
@@ -2064,13 +2109,13 @@
         <v>101</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="13" t="s">
@@ -2104,13 +2149,13 @@
         <v>102</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="13" t="s">
@@ -2144,13 +2189,13 @@
         <v>103</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="15" t="s">
@@ -2184,13 +2229,13 @@
         <v>104</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="13" t="s">
@@ -2224,13 +2269,13 @@
         <v>105</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="13" t="s">
@@ -2264,13 +2309,13 @@
         <v>106</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="13" t="s">
@@ -2304,13 +2349,13 @@
         <v>107</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="13" t="s">
@@ -2365,13 +2410,13 @@
         <v>108</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="13" t="s">
@@ -2405,13 +2450,13 @@
         <v>109</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="13" t="s">
@@ -2445,13 +2490,13 @@
         <v>110</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="13" t="s">
@@ -2485,13 +2530,13 @@
         <v>111</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="13" t="s">
@@ -2525,13 +2570,13 @@
         <v>112</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="13" t="s">
@@ -2565,13 +2610,13 @@
         <v>113</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="13" t="s">
@@ -2605,13 +2650,13 @@
         <v>114</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="13" t="s">
@@ -2645,13 +2690,13 @@
         <v>115</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="13" t="s">
@@ -2685,13 +2730,13 @@
         <v>116</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="13" t="s">
@@ -2725,13 +2770,13 @@
         <v>117</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="13" t="s">
@@ -2765,13 +2810,13 @@
         <v>118</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J84" s="14"/>
       <c r="K84" s="15" t="s">
@@ -2805,13 +2850,13 @@
         <v>119</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="15" t="s">
@@ -2949,11 +2994,19 @@
       <c r="F95" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="2"/>
+      <c r="G95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="K95" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2966,7 +3019,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="K96" s="15"/>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
@@ -2979,13 +3032,21 @@
         <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="K97" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -2998,7 +3059,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="K98" s="13"/>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
@@ -3011,13 +3072,21 @@
         <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="K99" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -3030,7 +3099,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="13"/>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
@@ -3043,13 +3112,21 @@
         <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="K101" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -3062,7 +3139,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="K102" s="13"/>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -3075,13 +3152,21 @@
         <v>77</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
@@ -3094,7 +3179,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="13"/>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
@@ -3107,13 +3192,21 @@
         <v>78</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
@@ -3126,7 +3219,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="K106" s="13"/>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
@@ -3139,13 +3232,21 @@
         <v>79</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="K107" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -3158,7 +3259,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="K108" s="13"/>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
@@ -3171,13 +3272,21 @@
         <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
@@ -3190,7 +3299,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="K110" s="15"/>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
@@ -3203,13 +3312,21 @@
         <v>81</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+      <c r="K111" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
@@ -3222,7 +3339,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="K112" s="13"/>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
@@ -3235,13 +3352,21 @@
         <v>82</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+      <c r="K113" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
@@ -3254,7 +3379,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="K114" s="13"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
